--- a/Submission_Template.xlsx
+++ b/Submission_Template.xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mclauffer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\lab-j\DCRT\00_Members\Marlen\N1C\Gene Registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB091CCB-6853-4453-9661-F16D285C7428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D35F8F52-E810-49CB-9407-ED4460F394E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
     <t>Email Address</t>
   </si>
   <si>
@@ -45,6 +58,9 @@
   <si>
     <t xml:space="preserve">Variant targeted
 Please describe your variant using HGVS nomenclature, including transcript, coding and protein changes. For example: NM_000051.2:c.7865C&gt;T: p.Ala2622Val </t>
+  </si>
+  <si>
+    <t>Is there a confirmed protein or RNA change that was different than the predicted impact, and verified by functional studies? If so, please provide information below</t>
   </si>
   <si>
     <t>Has this variant been published or deposited in databases?</t>
@@ -115,27 +131,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF5B3F86"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF442F65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -172,18 +173,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -194,7 +189,41 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF5B3F86"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B3F86"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF442F65"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF442F65"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -222,9 +251,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Form Responses 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -241,13 +270,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:T1" headerRowCount="0">
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
+    <tableColumn id="21" xr3:uid="{1ABAC2F3-0933-4A0E-AFC5-448B81D54E7D}" name="Column21" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
@@ -475,288 +504,288 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="9" width="37.6328125" customWidth="1"/>
-    <col min="10" max="10" width="29.90625" customWidth="1"/>
-    <col min="11" max="12" width="37.6328125" customWidth="1"/>
+    <col min="1" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="9" width="37.54296875" customWidth="1"/>
+    <col min="10" max="10" width="29.81640625" customWidth="1"/>
+    <col min="11" max="12" width="37.54296875" customWidth="1"/>
     <col min="13" max="13" width="36.26953125" customWidth="1"/>
-    <col min="14" max="16" width="37.6328125" customWidth="1"/>
-    <col min="17" max="17" width="29.36328125" customWidth="1"/>
-    <col min="18" max="20" width="37.6328125" customWidth="1"/>
-    <col min="21" max="26" width="18.90625" customWidth="1"/>
+    <col min="14" max="16" width="37.54296875" customWidth="1"/>
+    <col min="17" max="17" width="29.453125" customWidth="1"/>
+    <col min="18" max="20" width="37.54296875" customWidth="1"/>
+    <col min="21" max="26" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="140.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="H2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="H8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="H9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="H11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="R11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="H12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="H13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="H14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="R14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="H15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="H16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="R16" s="4"/>
     </row>
     <row r="17" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="H17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="R17" s="4"/>
     </row>
     <row r="18" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="H18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="R18" s="4"/>
     </row>
     <row r="19" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="H19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="R19" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="7">
